--- a/A.M.O.S.A-MS1-P2-B.xlsx
+++ b/A.M.O.S.A-MS1-P2-B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3E3CE5-923B-4F1E-9CBA-BB2BA8A75EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E745DB9-8BB8-4930-ADEC-A42E322DC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/A.M.O.S.A-MS1-P2-B.xlsx
+++ b/A.M.O.S.A-MS1-P2-B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E745DB9-8BB8-4930-ADEC-A42E322DC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D60764C-6E23-46E7-A067-8D329F9A585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
   <si>
     <t>Team Name</t>
   </si>
@@ -88,391 +88,528 @@
     <t>Delete this sheet or leave it empty in your second submission (improvement with no AI). You MUST include it in your first submission (AI only).</t>
   </si>
   <si>
-    <t>SCAD officer</t>
-  </si>
-  <si>
-    <t>assign faculty to students</t>
-  </si>
-  <si>
-    <t>evaluations can be carried out.</t>
-  </si>
-  <si>
-    <t>assign companies to students</t>
-  </si>
-  <si>
-    <t>their internship information is recorded.</t>
-  </si>
-  <si>
-    <t>I want to assign evaluation templates to faculty</t>
-  </si>
-  <si>
-    <t>evaluations are structured.</t>
-  </si>
-  <si>
-    <t>I want to view all evaluations submitted</t>
-  </si>
-  <si>
-    <t>I can monitor progress.</t>
-  </si>
-  <si>
-    <t>I want to update evaluation templates</t>
-  </si>
-  <si>
-    <t>they can be reused or improved.</t>
-  </si>
-  <si>
-    <t>download reports in Excel/PDF</t>
-  </si>
-  <si>
-    <t>can share them with stakeholders.</t>
-  </si>
-  <si>
-    <t>get notified if a faculty submits or delays an evaluation</t>
-  </si>
-  <si>
-    <t>I can follow up</t>
-  </si>
-  <si>
-    <t>SCAD officer,</t>
-  </si>
-  <si>
-    <t>automatically validate if a student has submitted all required reports</t>
-  </si>
-  <si>
-    <t>I can generate grades.</t>
-  </si>
-  <si>
-    <t>override validation results manually</t>
-  </si>
-  <si>
-    <t>exceptions can be made in special cases.</t>
-  </si>
-  <si>
-    <t>set deadlines for report submissions</t>
-  </si>
-  <si>
-    <t>validation can be automated.</t>
-  </si>
-  <si>
-    <t>second party will notice them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to mark companies/students as blacklisted </t>
-  </si>
-  <si>
-    <t>view the blacklist status of students and companies</t>
-  </si>
-  <si>
-    <t>I can manage reputation.</t>
+    <t>SCAD Officer</t>
+  </si>
+  <si>
+    <t>I want to view the submitted evaluation form</t>
+  </si>
+  <si>
+    <t>I can verify the student and company details are complete and accurate.</t>
+  </si>
+  <si>
+    <t>verify the student’s main supervisor is listed on the evaluation form</t>
+  </si>
+  <si>
+    <t>I can ensure proper oversight of the internship</t>
+  </si>
+  <si>
+    <t>check the start and end dates of the internship,</t>
+  </si>
+  <si>
+    <t>confirm that the evaluation form includes an official company stamp,</t>
+  </si>
+  <si>
+    <t>can validate the authenticity of the submitted document.</t>
+  </si>
+  <si>
+    <t>TO SEE TYPE OF INTERHSIP WHETER FULL TIME OR NOT</t>
+  </si>
+  <si>
+    <t>compare start time and endtime with fulltime and part time status and academic calender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to ensure only part time in the academic calender </t>
+  </si>
+  <si>
+    <t>eview all evaluation form items completed by the company</t>
+  </si>
+  <si>
+    <t>I can assess the quality and legitimacy of the student’s internship experience.</t>
+  </si>
+  <si>
+    <t>define fixed submission start and end dates for each cycle</t>
+  </si>
+  <si>
+    <t>students know when they are allowed to submit their evaluation forms</t>
+  </si>
+  <si>
+    <t>ccept student submissions only during the defined submission window,</t>
+  </si>
+  <si>
+    <t>the process remains organized and within the academic timeline.</t>
+  </si>
+  <si>
+    <t>I am able to give exceptions to som estudents</t>
+  </si>
+  <si>
+    <t>I can ensure that sick people or people has issues treated well</t>
+  </si>
+  <si>
+    <t>automatically check the company against a maintained blacklist,</t>
+  </si>
+  <si>
+    <r>
+      <t>internships from disapproved organizations are flagged immediately</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatically move submissions into a "Validation Pending" state when a cycle closes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>validation processes can run in bulk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">system to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatically forward validated student reports to the assigned faculty academic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>faculty can begin their review without manual intervention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>attach the correct evaluation form template to each forwarded report</t>
+  </si>
+  <si>
+    <r>
+      <t>faculty receive all necessary documentation in one package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>receive an email notification when a student’s report and evaluation form are assigned to me</t>
+  </si>
+  <si>
+    <r>
+      <t>I can review the documents promptly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>access student reports and evaluation forms through a secure dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I can review and complete them efficiently and securely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>faculty member</t>
   </si>
   <si>
-    <t>receive notifications when evaluations are assigned</t>
-  </si>
-  <si>
-    <t>don’t miss any.</t>
-  </si>
-  <si>
-    <t>view my assigned students and their details</t>
-  </si>
-  <si>
-    <t>I can evaluate them.</t>
-  </si>
-  <si>
-    <t>access evaluation forms online</t>
-  </si>
-  <si>
-    <t>I can fill them from anywhere.</t>
-  </si>
-  <si>
-    <t>save draft evaluations before submission</t>
-  </si>
-  <si>
-    <t>I can complete them later.</t>
-  </si>
-  <si>
-    <t>submit evaluations only after students have submitted their reports</t>
-  </si>
-  <si>
-    <t>they are complete.</t>
-  </si>
-  <si>
-    <t>submit evaluations with grades and comments</t>
-  </si>
-  <si>
-    <t>students get feedback.</t>
-  </si>
-  <si>
-    <t>can follow up.</t>
-  </si>
-  <si>
-    <t>know which student hasn’t submitted reports ,</t>
-  </si>
-  <si>
-    <t>escalate non-submissions to SCAD automatically</t>
-  </si>
-  <si>
-    <t>action can be taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> faculty member</t>
-  </si>
-  <si>
-    <t>request clarification from students via the system</t>
-  </si>
-  <si>
-    <t>something is unclear</t>
-  </si>
-  <si>
-    <t>lock my evaluations once submitted</t>
-  </si>
-  <si>
-    <t>they can’t be edited further</t>
-  </si>
-  <si>
-    <t>mark evaluation as complete</t>
-  </si>
-  <si>
-    <t>SCAD can process it.</t>
+    <t>I SHOULD BE ABLE TO SET A DEADLINE TO EACH FACULTY REVIEW</t>
+  </si>
+  <si>
+    <t>THAT STUDENTS WILL PROCESS THEIR INTERNSHIP STATUS FAST</t>
+  </si>
+  <si>
+    <t>I  reassign the report to a backup faculty member if the primary academic does not acknowledge receipt within a specified timeframe,</t>
+  </si>
+  <si>
+    <t>student evaluations are not delayed</t>
+  </si>
+  <si>
+    <t>I should be able to review submitted internship reports</t>
+  </si>
+  <si>
+    <t>assess the relevance of the internship tasks to the student's field of study.</t>
+  </si>
+  <si>
+    <t>I should be able to accept/reject a student report</t>
+  </si>
+  <si>
+    <t>so that to know whether to accept/decline internship</t>
+  </si>
+  <si>
+    <t>be able to flag an internship report as pending</t>
+  </si>
+  <si>
+    <t>student can improve their report according to the provided feedback and resubmit.</t>
+  </si>
+  <si>
+    <t>should be able to add feedback when rejecting or flagging a report</t>
+  </si>
+  <si>
+    <t>t students understand what changes are needed or why the report was not accepted.</t>
+  </si>
+  <si>
+    <t>I should be able to search and filter internship reports by student, department, or evaluation status</t>
+  </si>
+  <si>
+    <t>can efficiently locate and manage reports under review</t>
+  </si>
+  <si>
+    <t>I should be able to view the history of decisions and feedback for each internship report</t>
+  </si>
+  <si>
+    <t>I can ensure consistency in evaluations and track the progression of the student’s submission.</t>
+  </si>
+  <si>
+    <t>I should be able to inform students about their report evaluation statuc</t>
+  </si>
+  <si>
+    <t>they are aware of acceptance, rejection, or required improvements</t>
+  </si>
+  <si>
+    <t>I should be able to manage (create, read, update, delete) student internship statuses</t>
+  </si>
+  <si>
+    <t>I can track who has completed, is in progress, or needs to redo their internship.</t>
   </si>
   <si>
     <t>student</t>
   </si>
   <si>
-    <t>upload internship reports</t>
-  </si>
-  <si>
-    <t>I can be evaluated</t>
-  </si>
-  <si>
-    <t>get confirmation that my reports were successfully submitted</t>
-  </si>
-  <si>
-    <t>I have peace of mind.</t>
-  </si>
-  <si>
-    <t>download previously submitted reports</t>
-  </si>
-  <si>
-    <t>I can verify what I submitted.</t>
-  </si>
-  <si>
-    <t>view deadlines for all report submissions</t>
-  </si>
-  <si>
-    <t>I can plan accordingly.</t>
-  </si>
-  <si>
-    <t>receive reminders before submission deadlines</t>
-  </si>
-  <si>
-    <t>I don’t forget.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> be notified if my report was rejected with reasons</t>
-  </si>
-  <si>
-    <t>I can resubmit correctly.</t>
-  </si>
-  <si>
-    <t>resubmit my report after rejection</t>
-  </si>
-  <si>
-    <t>I can get evaluated.</t>
-  </si>
-  <si>
-    <t>see my internship progress</t>
-  </si>
-  <si>
-    <t>I know when I can unlock the next milestone.</t>
-  </si>
-  <si>
-    <t>unlock certain platform features only after SCAD approves my profile</t>
-  </si>
-  <si>
-    <t>misuse is prevented.</t>
-  </si>
-  <si>
-    <t>view which parts of the system are locked and why</t>
-  </si>
-  <si>
-    <t>I can take action.</t>
-  </si>
-  <si>
-    <t>search and apply to companies once I reach a milestone</t>
-  </si>
-  <si>
-    <t>I don’t apply prematurely.</t>
-  </si>
-  <si>
-    <t>know which part of my profile is pending SCAD approval</t>
-  </si>
-  <si>
-    <t>I can follow up.</t>
-  </si>
-  <si>
-    <t>approve student profiles</t>
-  </si>
-  <si>
-    <t>they can access the rest of the platform.</t>
-  </si>
-  <si>
-    <t>view pending student profiles for approval</t>
-  </si>
-  <si>
-    <t>I can manage onboarding.</t>
-  </si>
-  <si>
-    <t>reject student profiles with reasons</t>
-  </si>
-  <si>
-    <t>they know what to fix.</t>
-  </si>
-  <si>
-    <t>see student history across terms</t>
-  </si>
-  <si>
-    <t>I can make better decisions.</t>
-  </si>
-  <si>
-    <t>unlock specific features for students based on their case</t>
-  </si>
-  <si>
-    <t>rules can be flexible.</t>
-  </si>
-  <si>
-    <t>define what triggers milestones</t>
-  </si>
-  <si>
-    <t>the system can enforce them.</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>invite eligible students to apply</t>
-  </si>
-  <si>
-    <t>I can recruit efficiently.</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>message other users within the system</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can communicate easily.</t>
-  </si>
-  <si>
-    <t>I want to view my conversation history</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> keep track of communication.</t>
-  </si>
-  <si>
-    <t>confirm internship participation of a student</t>
-  </si>
-  <si>
-    <t>records are accurate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provide feedback on the student </t>
-  </si>
-  <si>
-    <t>SCAD can evaluate them</t>
-  </si>
-  <si>
-    <t>generate internship completion certificates based on validations.</t>
-  </si>
-  <si>
-    <t>so that student can have them or access to them</t>
-  </si>
-  <si>
-    <t>SCAD internship coordinator</t>
-  </si>
-  <si>
-    <t>want the system to reassign the report to a backup faculty member if the primary academic does not acknowledge receipt within a specified timeframe</t>
-  </si>
-  <si>
-    <t>student evaluations are not delayed.</t>
-  </si>
-  <si>
-    <t>I want to access student reports and evaluation forms through a secure dashboard,</t>
-  </si>
-  <si>
-    <t>I can review and complete them efficiently and securely.</t>
-  </si>
-  <si>
-    <t>faculty academic</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>I want to request an extension or late submission approval if I miss the deadlin</t>
-  </si>
-  <si>
-    <t>I still have a chance to submit under valid circumstances.</t>
-  </si>
-  <si>
-    <t>1, 18, 23</t>
-  </si>
-  <si>
-    <t>18, 23</t>
-  </si>
-  <si>
-    <t>24, 30</t>
-  </si>
-  <si>
-    <t>2, 36</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>15, 17</t>
-  </si>
-  <si>
-    <t>14, 24</t>
-  </si>
-  <si>
-    <t>2, 24, 18</t>
-  </si>
-  <si>
-    <t>31, 36, 41</t>
-  </si>
-  <si>
-    <t>36, 32</t>
-  </si>
-  <si>
-    <t>2, 34</t>
-  </si>
-  <si>
-    <t>2, 18</t>
-  </si>
-  <si>
-    <t>8, 18, 23, 46</t>
-  </si>
-  <si>
-    <t>13, 1</t>
-  </si>
-  <si>
-    <t>14, 15</t>
-  </si>
-  <si>
-    <t>10, 24</t>
+    <t>submit a new internship enrollment if my previous internship was rejected</t>
+  </si>
+  <si>
+    <t>fulfill the internship requirement for graduation.</t>
+  </si>
+  <si>
+    <t>view my internship status and the feedback provided by faculty or SCAD</t>
+  </si>
+  <si>
+    <t>understand the reason for rejection or flagging and take corrective action.</t>
+  </si>
+  <si>
+    <t>I should be able to appply for an extention of scad cycle</t>
+  </si>
+  <si>
+    <t>so that if I have a problem I should tell them</t>
+  </si>
+  <si>
+    <t>i should be able to send scad about info of status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should be able to revive replies </t>
+  </si>
+  <si>
+    <t>I want to view a chat history with SCAD members,</t>
+  </si>
+  <si>
+    <t>want all messages to be timestamped</t>
+  </si>
+  <si>
+    <t>I can track the timeline of the communication.</t>
+  </si>
+  <si>
+    <t>I can refer back to previous communications.</t>
+  </si>
+  <si>
+    <t>I don’t miss important updates.</t>
+  </si>
+  <si>
+    <t>I can ask questions or request clarification.</t>
+  </si>
+  <si>
+    <t>I want to receive a notification when a student sends a message</t>
+  </si>
+  <si>
+    <t>I can respond promptly to their clarification request.</t>
+  </si>
+  <si>
+    <t>I want to see a list of companies that have viewed my profile,</t>
+  </si>
+  <si>
+    <t>validation processes can run in bulk.</t>
+  </si>
+  <si>
+    <t>I want to know how many times each company has viewed my profile,</t>
+  </si>
+  <si>
+    <t>I can gauge the level of interest.</t>
+  </si>
+  <si>
+    <t>I want to request a career guidance session from the SCAD office,</t>
+  </si>
+  <si>
+    <t>receive personalized support related to my internship and career path.</t>
+  </si>
+  <si>
+    <t>want to choose between a video call or a voice call when booking a session,</t>
+  </si>
+  <si>
+    <t>can select the mode I’m most comfortable with.</t>
+  </si>
+  <si>
+    <t>schedule an available time slot for the call</t>
+  </si>
+  <si>
+    <t>can plan ahead and ensure I’m available.</t>
+  </si>
+  <si>
+    <t>receive confirmation and reminders for my upcoming SCAD guidance session</t>
+  </si>
+  <si>
+    <t>I don’t miss it.</t>
+  </si>
+  <si>
+    <t>I want to join the scheduled video or voice call through the platform</t>
+  </si>
+  <si>
+    <t>I want to access online self-assessment tests like MBTI, Strong Interest Inventory (SII), and Big Five</t>
+  </si>
+  <si>
+    <t>I can better understand my strengths, interests, and personality traits.</t>
+  </si>
+  <si>
+    <t>I want to view clear instructions and an overview of each test before starting</t>
+  </si>
+  <si>
+    <t>know what to expect and how to complete it properly.</t>
+  </si>
+  <si>
+    <t>, I want to view the results and interpretations of my assessments immediately after completing them</t>
+  </si>
+  <si>
+    <t>I can reflect on the insights provided.</t>
+  </si>
+  <si>
+    <t>I shouldreceive internship recommendations based on my self-assessment results</t>
+  </si>
+  <si>
+    <t>can explore roles that align with my personality and interests.</t>
+  </si>
+  <si>
+    <t>browse a list of available career development workshops offered by the SCAD office</t>
+  </si>
+  <si>
+    <t>I can find ones relevant to my goals</t>
+  </si>
+  <si>
+    <t>choose between attending live workshops or watching pre-recorded session</t>
+  </si>
+  <si>
+    <t>I can participate based on my schedule and preferences.</t>
+  </si>
+  <si>
+    <t>want to register for upcoming live workshops</t>
+  </si>
+  <si>
+    <t>I can secure a spot and receive details about joining.</t>
+  </si>
+  <si>
+    <t>want to upload pre-recorded sessions and schedule live workshops</t>
+  </si>
+  <si>
+    <t>students can access relevant development resources.</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>19,20,21</t>
+  </si>
+  <si>
+    <t>19,20,22</t>
+  </si>
+  <si>
+    <t>7,30</t>
+  </si>
+  <si>
+    <t>31,32</t>
+  </si>
+  <si>
+    <t>Unlock some featues in platform after green bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so they are PRO STUDENTS </t>
+  </si>
+  <si>
+    <t>, I should be able to green bar students after finishing 3 months</t>
+  </si>
+  <si>
+    <t>so that he is copleted his requirments</t>
+  </si>
+  <si>
+    <t>Profile and Identity Module</t>
+  </si>
+  <si>
+    <t>nternship Search and Recruitment Module</t>
   </si>
   <si>
     <t>Evaluation and Reporting Module</t>
   </si>
   <si>
-    <t>Internship Search and Recruitment Module</t>
-  </si>
-  <si>
-    <t>Profile and Identity Module</t>
+    <t>System Availability</t>
+  </si>
+  <si>
+    <t>Performance Speed</t>
+  </si>
+  <si>
+    <t>The platform should be available 24/7 with minimal downtime. Any maintenance should be communicated in advance.</t>
+  </si>
+  <si>
+    <t>99.9% uptime, less than 1 hour of downtime per month.</t>
+  </si>
+  <si>
+    <t>The system should respond to user requests within 2 seconds for most tasks to provide a seamless experience.</t>
+  </si>
+  <si>
+    <t>95% of all requests completed in under 2 seconds.</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <t>All submitted data (reports, evaluations, profiles) should be accurate, complete, and not be lost or corrupted.</t>
+  </si>
+  <si>
+    <t>100% accuracy in submitted data, validated with checksums and backup systems.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>The system must secure user data with industry-standard encryption and authentication protocols, preventing unauthorized access.</t>
+  </si>
+  <si>
+    <t>Compliance with GDPR and HIPAA, with regular security audits.</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>The system must scale to accommodate increasing users (students, faculty, companies) without compromising performance.</t>
+  </si>
+  <si>
+    <t>Capable of supporting 10,000 concurrent users without a significant performance drop.</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>The system should be easy to navigate for all user types (students, faculty, SCAD officers, companies), with minimal training required.</t>
+  </si>
+  <si>
+    <t>User satisfaction score of 85% or higher based on user surveys.</t>
+  </si>
+  <si>
+    <t>Backup and Recovery</t>
+  </si>
+  <si>
+    <t>The system must have an automated backup system and be able to recover data quickly in the event of a failure.</t>
+  </si>
+  <si>
+    <t>Data backup every 24 hours and system recovery time of less than 1 hour.</t>
+  </si>
+  <si>
+    <t>28,44,42,49</t>
+  </si>
+  <si>
+    <t>14,22,24,35</t>
+  </si>
+  <si>
+    <t>1,6,18,25</t>
+  </si>
+  <si>
+    <t>15,28,33,43,49</t>
+  </si>
+  <si>
+    <t>8,11,17,34,37</t>
+  </si>
+  <si>
+    <t>13,21,27,50,45</t>
+  </si>
+  <si>
+    <t>7,10,19,46</t>
   </si>
   <si>
     <t>AbdelRahman Anbar</t>
@@ -526,110 +663,14 @@
     <t>aly.ewida@student.guc.edu.eg</t>
   </si>
   <si>
-    <t>System Availability</t>
-  </si>
-  <si>
-    <t>The platform should be available 24/7 with minimal downtime. Any maintenance should be communicated in advance.</t>
-  </si>
-  <si>
-    <t>99.9% uptime, less than 1 hour of downtime per month.</t>
-  </si>
-  <si>
-    <t>36,44</t>
-  </si>
-  <si>
-    <t>Performance Speed</t>
-  </si>
-  <si>
-    <t>The system should respond to user requests within 2 seconds for most tasks to provide a seamless experience.</t>
-  </si>
-  <si>
-    <t>95% of all requests completed in under 2 seconds.</t>
-  </si>
-  <si>
-    <t>24,14</t>
-  </si>
-  <si>
-    <t>Data Integrity</t>
-  </si>
-  <si>
-    <t>All submitted data (reports, evaluations, profiles) should be accurate, complete, and not be lost or corrupted.</t>
-  </si>
-  <si>
-    <t>100% accuracy in submitted data, validated with checksums and backup systems.</t>
-  </si>
-  <si>
-    <t>2,47</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>The system must secure user data with industry-standard encryption and authentication protocols, preventing unauthorized access.</t>
-  </si>
-  <si>
-    <t>Compliance with GDPR and HIPAA, with regular security audits.</t>
-  </si>
-  <si>
-    <t>49,33</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t>The system must scale to accommodate increasing users (students, faculty, companies) without compromising performance.</t>
-  </si>
-  <si>
-    <t>Capable of supporting 10,000 concurrent users without a significant performance drop.</t>
-  </si>
-  <si>
-    <t>34,37</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
-    <t>The system should be easy to navigate for all user types (students, faculty, SCAD officers, companies), with minimal training required.</t>
-  </si>
-  <si>
-    <t>User satisfaction score of 85% or higher based on user surveys.</t>
-  </si>
-  <si>
-    <t>13,50</t>
-  </si>
-  <si>
-    <t>Backup and Recovery</t>
-  </si>
-  <si>
-    <t>The system must have an automated backup system and be able to recover data quickly in the event of a failure.</t>
-  </si>
-  <si>
-    <t>Data backup every 24 hours and system recovery time of less than 1 hour.</t>
-  </si>
-  <si>
-    <t>46,8</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/share/67fa9ca0-6f88-8005-bb02-eb2c6a90ba46</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/share/67f92c20-1ce8-8003-9c4a-e95080df6611</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/share/67f91aa6-16c4-8002-88b6-d671bdc97794</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/share/67f91152-767c-800e-8e8f-262aeea4cd60</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/share/67f7e3c5-3380-800a-a62a-09da8fa8374b</t>
+    <t>A.M.O.S.A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -723,9 +764,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1058,18 +1111,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1107,6 +1159,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,7 +1213,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1376,49 +1434,51 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1435,73 +1495,73 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>152</v>
+      <c r="A7" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>156</v>
+      <c r="A8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>156</v>
+      <c r="A9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2515,58 +2575,61 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="125.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="148.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2583,7 +2646,10 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2598,9 +2664,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2615,15 +2681,15 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2632,18 +2698,18 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2652,18 +2718,18 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2680,10 +2746,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2700,67 +2766,70 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -2769,15 +2838,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -2789,387 +2858,387 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>52</v>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>63</v>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
         <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
+      <c r="D23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
-        <v>46</v>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
+      <c r="D25" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>70</v>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>70</v>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>70</v>
+      <c r="D30" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
+      <c r="D31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>70</v>
+      <c r="D32" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
-        <v>70</v>
+      <c r="D33" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -3177,104 +3246,107 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
-        <v>70</v>
+      <c r="D34" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
-        <v>70</v>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
-        <v>70</v>
+      <c r="D36" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
-        <v>70</v>
+      <c r="D37" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
-      <c r="D38" t="s">
-        <v>20</v>
+      <c r="D38" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>36</v>
@@ -3282,136 +3354,139 @@
       <c r="C39">
         <v>37</v>
       </c>
-      <c r="D39" t="s">
-        <v>20</v>
+      <c r="D39" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
-      <c r="D40" t="s">
-        <v>20</v>
+      <c r="D40" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B41">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
-      <c r="D41" t="s">
-        <v>20</v>
+      <c r="D41" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
-        <v>20</v>
+      <c r="D42" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
       </c>
       <c r="C43">
         <v>41</v>
       </c>
-      <c r="D43" t="s">
-        <v>20</v>
+      <c r="D43" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B44">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
-      <c r="D44" t="s">
-        <v>107</v>
+      <c r="D44" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
       </c>
       <c r="C45">
         <v>43</v>
       </c>
-      <c r="D45" t="s">
-        <v>110</v>
+      <c r="D45" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>43</v>
@@ -3419,134 +3494,134 @@
       <c r="C46">
         <v>44</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>110</v>
+      <c r="D46" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
       </c>
       <c r="C47">
         <v>45</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
         <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" t="s">
-        <v>141</v>
+        <v>127</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
       </c>
       <c r="C48">
         <v>46</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>107</v>
+      <c r="D48" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>29</v>
       </c>
       <c r="C49">
         <v>47</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>20</v>
+      <c r="D49" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
       </c>
       <c r="C50">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
-        <v>121</v>
+      <c r="D50" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
       </c>
       <c r="C51">
         <v>49</v>
       </c>
-      <c r="D51" t="s">
-        <v>126</v>
+      <c r="D51" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
-      <c r="D52" t="s">
-        <v>127</v>
+      <c r="D52" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3557,6 +3632,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3567,71 +3643,71 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="69.5546875" customWidth="1"/>
+    <col min="4" max="4" width="79.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="35.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="6"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -3639,16 +3715,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -3656,16 +3732,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -3673,16 +3749,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -3690,16 +3766,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -3707,16 +3783,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -3724,16 +3800,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3746,79 +3822,69 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="98.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="16" customFormat="1" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="66.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>194</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>196</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>197</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>198</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{F5D130F9-79AE-4E86-B333-725569A53A6B}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{50A3354F-A1CC-45FF-B5E2-E4F9FADC25D2}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{2AAE6F7D-0E41-4BA6-B99C-EF28B6CFF2F5}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{064A1696-CBEC-4786-801A-015B35D94D2E}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{DC745339-8A91-4C29-80A0-7263C274D093}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://chatgpt.com/share/67fa9ca0-6f88-8005-bb02-eb2c6a90ba46" xr:uid="{F5D130F9-79AE-4E86-B333-725569A53A6B}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://chatgpt.com/share/67f92c20-1ce8-8003-9c4a-e95080df6611" xr:uid="{50A3354F-A1CC-45FF-B5E2-E4F9FADC25D2}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://chatgpt.com/share/67f91152-767c-800e-8e8f-262aeea4cd60" xr:uid="{2AAE6F7D-0E41-4BA6-B99C-EF28B6CFF2F5}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://chatgpt.com/share/67f7e3c5-3380-800a-a62a-09da8fa8374b" xr:uid="{064A1696-CBEC-4786-801A-015B35D94D2E}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://chatgpt.com/share/67f91aa6-16c4-8002-88b6-d671bdc97794" xr:uid="{DC745339-8A91-4C29-80A0-7263C274D093}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
